--- a/cordexp/models/ictp-regcm4-6/cordexp_eur_11_ictp_regcm4_6_atmos.xlsx
+++ b/cordexp/models/ictp-regcm4-6/cordexp_eur_11_ictp_regcm4_6_atmos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\James\Dropbox\ICTP\Research\PRINCIPLES\ES-DOC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36631A0A-2EF0-4B89-8806-747E658E0C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -19,12 +25,12 @@
     <sheet name="8. Gravity Waves" sheetId="10" r:id="rId10"/>
     <sheet name="9. Natural Forcing" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1058">
   <si>
     <t>ES-DOC CORDEX Model Documentation</t>
   </si>
@@ -3084,13 +3090,127 @@
   </si>
   <si>
     <t>stratospheric aerosols optical thickness</t>
+  </si>
+  <si>
+    <t>REGCM4-6</t>
+  </si>
+  <si>
+    <t>REGCM; CORDEX; ICTP; Earth System Physics</t>
+  </si>
+  <si>
+    <t>RegCM4-6 is the sixth version of the latest fourth generation of the ICTP regional climate model RegCM, based on the numerical weather prediction model NCEP/NCAR Mesoscale Model. The RegCM4-6 has a hydrostatic dynamical core with 23 model levels in the hybrid pressure vertical coordinate. The RegCM4-6 employs a CLM4.5 land surface scheme with physiography based on MODIS satellite data.</t>
+  </si>
+  <si>
+    <t>Regional Atmospheric Climate Model</t>
+  </si>
+  <si>
+    <t>Hydrostatic</t>
+  </si>
+  <si>
+    <t>12.0 km x 12.0 km</t>
+  </si>
+  <si>
+    <t>seasonal bias[tas, pr, P99]; PDFs[tas, pr]</t>
+  </si>
+  <si>
+    <t>Arakawa B</t>
+  </si>
+  <si>
+    <t>longitude_of_central_meridian = 9.75; standard_parallel = 30., 65.; latitude_of_projection_origin = 48.; false_easting = -6000.; false_northing = -6000.; semi_major_axis = 6371229.; inverse_flattening = 0.</t>
+  </si>
+  <si>
+    <t>12.0 km</t>
+  </si>
+  <si>
+    <t>527 x 527</t>
+  </si>
+  <si>
+    <t>40 x 40 point boundary relaxation; exponential relaxation with newtonian term of the time step and diffusion (Giorgi, F., M. R. Marinucci, G. T. Bates, and G. De Canio, 1993: Development of a second-generation climate model (RegCM2). Part II: Convective processes and assimilation of lateral boundary conditions. Mon. Wea. Rev., 121, 2814–2832.</t>
+  </si>
+  <si>
+    <t>451 x 451</t>
+  </si>
+  <si>
+    <t>Projected</t>
+  </si>
+  <si>
+    <t>turbulent KE</t>
+  </si>
+  <si>
+    <t>rigid; zero pressure velocity</t>
+  </si>
+  <si>
+    <t>zero vertical velocity</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>exponential relaxation towards GCM</t>
+  </si>
+  <si>
+    <t>LeVeque 4th order 9 point laplacian</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>CAM-CCM3-CRM</t>
+  </si>
+  <si>
+    <t>The CCM3 model physics is exectly identical to the Column Radiation Model (CRM). url: http://dust.ess.uci.edu/crm/index.shtml</t>
+  </si>
+  <si>
+    <t>The starting set-up was identical to that of the CORDEX-CORE. 5 year simulations [1999-2005] were run to test the configuration and compare to the EOBS (using seasonal biases, and PDFs). The simulations were repeated by changing cloud, convection, and other parameters (one at a time) in order to minimize the bias. The final configuration used was the best configuration obtained in the 6-month time-frame allocated for the tuning.</t>
+  </si>
+  <si>
+    <t>The grid is an Arakawa B staggered with Lambert Conformal projection, with a central latitude and longitude of 48.00 and 9.75 respectively, and Lambert true latitudes standard parallels of 30.0 and 65.0.</t>
+  </si>
+  <si>
+    <t>UW PBL</t>
+  </si>
+  <si>
+    <t>Tiedtke</t>
+  </si>
+  <si>
+    <t>SUBEX</t>
+  </si>
+  <si>
+    <t>Sundqvist</t>
+  </si>
+  <si>
+    <t>sparcsolar</t>
+  </si>
+  <si>
+    <t>As prescribed in measured up to 2005; last solar cycle repeated for the future</t>
+  </si>
+  <si>
+    <t>Not taken into account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giorgi F., et al. (2012). RegCM4: model description and preliminary tests over multiple CORDEX domains. Climate Research, 52, 7-29. doi: 10.3354/cr01018; Giorgi F, et al (2017). Regional Climatic Model RegCM: User’s Guide Version 4.6. ICTP, Trieste. </t>
+  </si>
+  <si>
+    <t>No volcanic forcing. The Solar forcing follows the CMIP5 recommendations (url: https://solarisheppa.geomar.de/cmip5) with orbitals parameters described in Berger (1978). Berger, A. (1978). Long-Term Variations of Daily Insolation and Quaternary Climatic Changes, Journal of Atmospheric Sciences, 35(12), 2362-2367.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar constant, semi-major axis of ecliptic, obliquity, eccentricity, longitude of parihelion, precession </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The UW planetary boundary layer parameterization provides realistic treatment of stratocumulus-capped boundary layer (SCBL) by combining a 1.5-order turbulent closure model with an entrainment closure at the boundary layer top (Grenier, H., &amp; Bretherton, C. S. (2001). A Moist PBL Parameterization for Large-Scale Models and Its Application to Subtropical Cloud-Topped Marine Boundary Layers, Monthly Weather Review, 129(3), 357-377). </t>
+  </si>
+  <si>
+    <t>The SUBEX scheme describe large scale precipitation according to a specified autoconversion rate, when a cloud water threshold is exceeded. The specification of this threshold is based on empirical in-cloud observations of cloud liquid water amounts. Included in the scheme are simple formulations for raindrop accretion and evaporation (Pal, J. S., Small, E. E., and Eltahir, E. A. B. (2000), Simulation of regional‐scale water and energy budgets: Representation of subgrid cloud and precipitation processes within RegCM, J. Geophys. Res., 105( D24), 29579– 29594, doi:10.1029/2000JD900415).</t>
+  </si>
+  <si>
+    <t>The cloud scheme follows Sundqvist et al. (1989) in using a critical relative humidity to compute the diagnostic cloud fraction from model relative humidity. The in-cloud water content is diagnosed from the model temperature following Lemus et al. (1997)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3191,8 +3311,17 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3223,6 +3352,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3236,7 +3377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3280,12 +3421,32 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3332,7 +3493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3364,9 +3525,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3398,6 +3577,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3573,24 +3770,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="21">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3598,7 +3797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="21">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3606,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="21">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3614,7 +3813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="21">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3622,7 +3821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="21">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3630,47 +3829,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.399999999999999">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20.399999999999999">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20.399999999999999">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20.399999999999999">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20.399999999999999">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20.399999999999999">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="20.399999999999999">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20.399999999999999">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="17.399999999999999">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -3678,7 +3877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="17.399999999999999">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3686,7 +3885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
@@ -3694,7 +3893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="17.399999999999999">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -3702,13 +3901,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="21">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="21">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3716,25 +3915,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
@@ -3770,7 +3971,9 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3796,7 +3999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="178" customHeight="1">
+    <row r="11" spans="1:29" ht="178.05" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
@@ -4269,39 +4472,18 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B72 B42 B19" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>AA15:AC15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AC19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B63 B46" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>AA24:AD24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B76 B50" xr:uid="{00000000-0002-0000-0900-000003000000}">
       <formula1>AA37:AF37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AC42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>AA46:AD46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AF50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0900-000008000000}">
       <formula1>AA68:AB68</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AC72</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>AA76:AF76</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4309,17 +4491,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AD77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -4355,7 +4539,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4381,8 +4567,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="178.05" customHeight="1">
+      <c r="B11" s="18" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -4422,7 +4610,9 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>960</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>960</v>
       </c>
@@ -4469,7 +4659,9 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>970</v>
+      </c>
       <c r="AA28" s="6" t="s">
         <v>969</v>
       </c>
@@ -4519,7 +4711,9 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
@@ -4554,7 +4748,9 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="24" customHeight="1">
-      <c r="B44" s="11"/>
+      <c r="B44" s="11" t="s">
+        <v>970</v>
+      </c>
       <c r="AA44" s="6" t="s">
         <v>969</v>
       </c>
@@ -4582,7 +4778,9 @@
       </c>
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="11">
+        <v>1950</v>
+      </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
@@ -4604,7 +4802,9 @@
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
-      <c r="B52" s="11"/>
+      <c r="B52" s="18" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
@@ -4626,7 +4826,9 @@
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>998</v>
+      </c>
       <c r="AA56" s="6" t="s">
         <v>998</v>
       </c>
@@ -4670,7 +4872,9 @@
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
@@ -4709,8 +4913,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="178" customHeight="1">
-      <c r="B73" s="11"/>
+    <row r="73" spans="1:29" ht="178.05" customHeight="1">
+      <c r="B73" s="11" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
@@ -4744,31 +4950,25 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>AA20:AD20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B44" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>AA28:AB28</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0A00-000002000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>AA44:AB44</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48" xr:uid="{00000000-0002-0000-0A00-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B77" xr:uid="{00000000-0002-0000-0A00-000005000000}">
       <formula1>AA56:AC56</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64" xr:uid="{00000000-0002-0000-0A00-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
-      <formula1>AA77:AC77</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4776,19 +4976,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -4799,7 +4999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="17.399999999999999">
       <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
@@ -4815,7 +5015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.6">
       <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
@@ -4823,11 +5023,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="17.399999999999999">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="17.399999999999999">
       <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
@@ -4843,7 +5043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.6">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -4851,39 +5051,41 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="17.399999999999999">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Dynamical Core,Radiation,Turbulence Convection,Microphysics Precipitation,Cloud Scheme,Gravity Waves,Natural Forcing"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -4919,7 +5121,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4946,7 +5150,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -4972,8 +5178,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="178.05" customHeight="1">
+      <c r="B16" s="15" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
@@ -4995,7 +5203,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="16" t="s">
+        <v>1023</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>63</v>
       </c>
@@ -5031,7 +5241,9 @@
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="AA25" s="6" t="s">
         <v>70</v>
       </c>
@@ -5087,7 +5299,9 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
@@ -5109,7 +5323,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
@@ -5131,7 +5347,9 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
+      <c r="B41" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="12" t="s">
@@ -5166,7 +5384,9 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
+      <c r="B49" s="11">
+        <v>24</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
@@ -5188,7 +5408,9 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
+      <c r="B53" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
@@ -5210,7 +5432,9 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
+      <c r="B57" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
@@ -5245,7 +5469,9 @@
       </c>
     </row>
     <row r="65" spans="1:31" ht="24" customHeight="1">
-      <c r="B65" s="11"/>
+      <c r="B65" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="AA65" s="6" t="s">
         <v>115</v>
       </c>
@@ -5341,11 +5567,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
+    <row r="81" spans="1:3" ht="46.8">
       <c r="A81" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="17" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="10" t="s">
@@ -5357,8 +5583,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="178" customHeight="1">
-      <c r="B83" s="11"/>
+    <row r="83" spans="1:3" ht="178.05" customHeight="1">
+      <c r="B83" s="18" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
@@ -5385,7 +5613,9 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
+      <c r="B88" s="11" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
@@ -5415,51 +5645,45 @@
       <c r="B93" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AC20</formula1>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>AA65:AC65</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AA25:AG25</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B57 B53 B49" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70" xr:uid="{00000000-0002-0000-0200-000008000000}">
+      <formula1>AA70:AE70</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
-      <formula1>AA65:AC65</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AE70</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B20" xr:uid="{6F3592BB-050F-44A9-AAF2-998ED09725A8}">
+      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -5495,7 +5719,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5521,8 +5747,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="178.05" customHeight="1">
+      <c r="B11" s="18" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -5557,7 +5785,9 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="AA19" s="6" t="s">
         <v>160</v>
       </c>
@@ -5591,7 +5821,9 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
@@ -5613,7 +5845,9 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
@@ -5635,7 +5869,9 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
@@ -5657,7 +5893,9 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
@@ -5679,7 +5917,9 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
@@ -5701,7 +5941,9 @@
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="AA43" s="6" t="s">
         <v>187</v>
       </c>
@@ -5732,7 +5974,9 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AA47" s="6" t="s">
         <v>193</v>
       </c>
@@ -5834,7 +6078,12 @@
       </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="B59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>1033</v>
+      </c>
       <c r="AA59" s="6" t="s">
         <v>215</v>
       </c>
@@ -5889,7 +6138,9 @@
       </c>
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="s">
+        <v>227</v>
+      </c>
       <c r="AA68" s="6" t="s">
         <v>226</v>
       </c>
@@ -5910,26 +6161,17 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B55 B51 B47" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>AA43:AC43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
-      <formula1>AA47:AD47</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>AA51:AD51</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>AA55:AD55</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>AA59:AE59</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>AA68:AF68</formula1>
     </dataValidation>
   </dataValidations>
@@ -5938,17 +6180,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AM109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
@@ -5984,7 +6228,9 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -6010,8 +6256,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:36" ht="178.05" customHeight="1">
+      <c r="B11" s="18" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -6033,7 +6281,9 @@
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="AA15" s="6" t="s">
         <v>244</v>
       </c>
@@ -6090,7 +6340,9 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>257</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>257</v>
       </c>
@@ -6131,329 +6383,353 @@
         <v>65</v>
       </c>
     </row>
+    <row r="21" spans="1:39" ht="24" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL21" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="24" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="B23" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="24" customHeight="1">
+      <c r="B24" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="24" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="24" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="24" customHeight="1">
-      <c r="B24" s="13" t="s">
+    <row r="29" spans="1:39" ht="24" customHeight="1">
+      <c r="B29" s="13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
+    <row r="31" spans="1:39" ht="24" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="24" customHeight="1">
-      <c r="A27" s="14" t="s">
+    <row r="32" spans="1:39" ht="24" customHeight="1">
+      <c r="A32" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
-      <c r="AA28" s="6" t="s">
+    <row r="33" spans="1:29" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AA33" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AB28" s="6" t="s">
+      <c r="AB33" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AC28" s="6" t="s">
+      <c r="AC33" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
+    <row r="35" spans="1:29" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
+    <row r="36" spans="1:29" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
-    </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
+    <row r="37" spans="1:29" ht="24" customHeight="1">
+      <c r="B37" s="11" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="24" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="14" t="s">
+    <row r="40" spans="1:29" ht="24" customHeight="1">
+      <c r="A40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="12" t="s">
+    <row r="41" spans="1:29" ht="24" customHeight="1">
+      <c r="B41" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1">
+      <c r="A44" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="B40" s="13" t="s">
+    <row r="45" spans="1:29" ht="24" customHeight="1">
+      <c r="B45" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
+    <row r="47" spans="1:29" ht="24" customHeight="1">
+      <c r="A47" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="14" t="s">
+    <row r="48" spans="1:29" ht="24" customHeight="1">
+      <c r="A48" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B48" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="B44" s="11"/>
-      <c r="AA44" s="6" t="s">
+    <row r="49" spans="1:29" ht="24" customHeight="1">
+      <c r="B49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AA49" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AB44" s="6" t="s">
+      <c r="AB49" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AC44" s="6" t="s">
+      <c r="AC49" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="12" t="s">
+    <row r="52" spans="1:29" ht="24" customHeight="1">
+      <c r="A52" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B52" s="12" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="B48" s="13" t="s">
+    <row r="53" spans="1:29" ht="24" customHeight="1">
+      <c r="B53" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
+    <row r="55" spans="1:29" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
+    <row r="56" spans="1:29" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="24" customHeight="1">
-      <c r="B52" s="11"/>
-    </row>
-    <row r="54" spans="1:32" ht="24" customHeight="1">
-      <c r="A54" s="9" t="s">
+    <row r="57" spans="1:29" ht="24" customHeight="1">
+      <c r="B57" s="11" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="24" customHeight="1">
+      <c r="A59" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="24" customHeight="1">
-      <c r="A55" s="14" t="s">
+    <row r="60" spans="1:29" ht="24" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
-      <c r="AA56" s="6" t="s">
+    <row r="61" spans="1:29" ht="24" customHeight="1">
+      <c r="B61" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="AB56" s="6" t="s">
+      <c r="AA61" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB61" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="AC56" s="6" t="s">
+      <c r="AC61" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="24" customHeight="1">
-      <c r="A59" s="12" t="s">
+    <row r="64" spans="1:29" ht="24" customHeight="1">
+      <c r="A64" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B64" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="24" customHeight="1">
-      <c r="B60" s="13" t="s">
+    <row r="65" spans="1:39" ht="24" customHeight="1">
+      <c r="B65" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="24" customHeight="1">
-      <c r="A62" s="9" t="s">
+    <row r="67" spans="1:39" ht="24" customHeight="1">
+      <c r="A67" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B67" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="24" customHeight="1">
-      <c r="A63" s="14" t="s">
+    <row r="68" spans="1:39" ht="24" customHeight="1">
+      <c r="A68" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
-      <c r="AA64" s="6" t="s">
+    <row r="69" spans="1:39" ht="24" customHeight="1">
+      <c r="B69" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA69" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AB64" s="6" t="s">
+      <c r="AB69" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AC64" s="6" t="s">
+      <c r="AC69" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AD64" s="6" t="s">
+      <c r="AD69" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AE64" s="6" t="s">
+      <c r="AE69" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AF64" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:39" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:39" ht="24" customHeight="1">
-      <c r="A67" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:39" ht="24" customHeight="1">
-      <c r="B68" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:39" ht="24" customHeight="1">
-      <c r="B69" s="11"/>
-      <c r="AA69" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB69" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC69" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD69" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="AE69" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="AF69" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AG69" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH69" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI69" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ69" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="AK69" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="AL69" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="AM69" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:39" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="24" customHeight="1">
@@ -6461,10 +6737,10 @@
         <v>60</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:39" ht="24" customHeight="1">
@@ -6475,21 +6751,51 @@
     <row r="74" spans="1:39" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="AC74" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE74" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF74" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG74" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH74" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI74" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ74" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK74" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL74" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM74" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:39" ht="24" customHeight="1">
@@ -6497,122 +6803,118 @@
         <v>60</v>
       </c>
       <c r="B77" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" ht="24" customHeight="1">
+      <c r="B78" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" ht="24" customHeight="1">
+      <c r="B79" s="11"/>
+      <c r="AA79" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC79" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="24" customHeight="1">
+      <c r="A81" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="24" customHeight="1">
+      <c r="A82" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
-      <c r="AA78" s="6" t="s">
+    <row r="83" spans="1:32" ht="24" customHeight="1">
+      <c r="B83" s="11"/>
+      <c r="AA83" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AB78" s="6" t="s">
+      <c r="AB83" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="AC78" s="6" t="s">
+      <c r="AC83" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="24" customHeight="1">
-      <c r="A81" s="12" t="s">
+    <row r="86" spans="1:32" ht="24" customHeight="1">
+      <c r="A86" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="24" customHeight="1">
-      <c r="B82" s="13" t="s">
+    <row r="87" spans="1:32" ht="24" customHeight="1">
+      <c r="B87" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1">
-      <c r="A84" s="9" t="s">
+    <row r="89" spans="1:32" ht="24" customHeight="1">
+      <c r="A89" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B89" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="24" customHeight="1">
-      <c r="A85" s="14" t="s">
+    <row r="90" spans="1:32" ht="24" customHeight="1">
+      <c r="A90" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B90" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="24" customHeight="1">
-      <c r="B86" s="11"/>
-      <c r="AA86" s="6" t="s">
+    <row r="91" spans="1:32" ht="24" customHeight="1">
+      <c r="B91" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AA91" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="AB86" s="6" t="s">
+      <c r="AB91" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="AC86" s="6" t="s">
+      <c r="AC91" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="AD86" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:32" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="24" customHeight="1">
-      <c r="A89" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:32" ht="24" customHeight="1">
-      <c r="B90" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:32" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-      <c r="AA91" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB91" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC91" s="6" t="s">
-        <v>358</v>
-      </c>
       <c r="AD91" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE91" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF91" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
@@ -6620,84 +6922,85 @@
         <v>60</v>
       </c>
       <c r="B94" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" ht="24" customHeight="1">
+      <c r="B95" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" ht="24" customHeight="1">
+      <c r="B96" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA96" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB96" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC96" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD96" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE96" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF96" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" ht="24" customHeight="1">
+      <c r="A98" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" ht="24" customHeight="1">
+      <c r="A99" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C99" s="10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-      <c r="AA95" s="6" t="s">
+    <row r="100" spans="1:33" ht="24" customHeight="1">
+      <c r="B100" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AB95" s="6" t="s">
+      <c r="AA100" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB100" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="AC95" s="6" t="s">
+      <c r="AC100" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="AD95" s="6" t="s">
+      <c r="AD100" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="AE95" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:33" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="98" spans="1:33" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="99" spans="1:33" ht="24" customHeight="1">
-      <c r="B99" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:33" ht="24" customHeight="1">
-      <c r="B100" s="11"/>
-      <c r="AA100" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB100" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC100" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD100" s="6" t="s">
-        <v>375</v>
-      </c>
       <c r="AE100" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="AF100" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AG100" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
@@ -6705,64 +7008,99 @@
         <v>60</v>
       </c>
       <c r="B103" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" ht="24" customHeight="1">
+      <c r="B104" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" ht="24" customHeight="1">
+      <c r="B105" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA105" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB105" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC105" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD105" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE105" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF105" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG105" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" ht="24" customHeight="1">
+      <c r="A107" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" ht="24" customHeight="1">
+      <c r="A108" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C108" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="24" customHeight="1">
-      <c r="B104" s="11"/>
-      <c r="AA104" s="6" t="s">
+    <row r="109" spans="1:33" ht="24" customHeight="1">
+      <c r="B109" s="11"/>
+      <c r="AA109" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AB104" s="6" t="s">
+      <c r="AB109" s="6" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AJ15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74 B20:B25" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>AA20:AM20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33 B83 B79 B61 B49" xr:uid="{00000000-0002-0000-0400-000002000000}">
+      <formula1>AA33:AC33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>AA44:AC44</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69 B96" xr:uid="{00000000-0002-0000-0400-000005000000}">
+      <formula1>AA69:AF69</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
-      <formula1>AA56:AC56</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91" xr:uid="{00000000-0002-0000-0400-000009000000}">
+      <formula1>AA91:AD91</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
-      <formula1>AA64:AF64</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100" xr:uid="{00000000-0002-0000-0400-00000B000000}">
+      <formula1>AA100:AE100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
-      <formula1>AA69:AM69</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105" xr:uid="{00000000-0002-0000-0400-00000C000000}">
+      <formula1>AA105:AG105</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
-      <formula1>AA74:AC74</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
-      <formula1>AA78:AC78</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86">
-      <formula1>AA86:AD86</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>AA91:AF91</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>AA95:AE95</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
-      <formula1>AA100:AG100</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104">
-      <formula1>AA104:AB104</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109" xr:uid="{00000000-0002-0000-0400-00000D000000}">
+      <formula1>AA109:AB109</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6770,17 +7108,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AX218"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1">
@@ -6816,7 +7156,9 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -6842,8 +7184,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:40" ht="178.05" customHeight="1">
+      <c r="B11" s="18" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="13" spans="1:40" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -6870,7 +7214,12 @@
       </c>
     </row>
     <row r="16" spans="1:40" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1037</v>
+      </c>
       <c r="AA16" s="6" t="s">
         <v>394</v>
       </c>
@@ -6947,7 +7296,9 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
@@ -6969,7 +7320,9 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>417</v>
+      </c>
       <c r="AA28" s="6" t="s">
         <v>417</v>
       </c>
@@ -7008,7 +7361,9 @@
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>424</v>
+      </c>
       <c r="AA33" s="6" t="s">
         <v>424</v>
       </c>
@@ -7048,7 +7403,9 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
@@ -7075,7 +7432,9 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
+      <c r="B42" s="11" t="s">
+        <v>437</v>
+      </c>
       <c r="AA42" s="6" t="s">
         <v>437</v>
       </c>
@@ -7107,7 +7466,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="24" customHeight="1">
+    <row r="49" spans="1:44" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>60</v>
       </c>
@@ -7118,13 +7477,15 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="24" customHeight="1">
+    <row r="50" spans="1:44" ht="24" customHeight="1">
       <c r="B50" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
+    <row r="51" spans="1:44" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="AA51" s="6" t="s">
         <v>446</v>
       </c>
@@ -7159,1405 +7520,1469 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
+    <row r="52" spans="1:44" ht="24" customHeight="1">
+      <c r="B52" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" ht="24" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" ht="24" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" ht="24" customHeight="1">
+      <c r="B56" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" ht="24" customHeight="1">
+      <c r="B57" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" ht="24" customHeight="1">
+      <c r="A59" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="24" customHeight="1">
-      <c r="A54" s="14" t="s">
+    <row r="60" spans="1:44" ht="24" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="24" customHeight="1">
-      <c r="B55" s="10" t="s">
+    <row r="61" spans="1:44" ht="24" customHeight="1">
+      <c r="B61" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
-      <c r="AA56" s="6" t="s">
+    <row r="62" spans="1:44" ht="24" customHeight="1">
+      <c r="B62" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA62" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AB56" s="6" t="s">
+      <c r="AB62" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="AC56" s="6" t="s">
+      <c r="AC62" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="AD56" s="6" t="s">
+      <c r="AD62" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="AE56" s="6" t="s">
+      <c r="AE62" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="AF56" s="6" t="s">
+      <c r="AF62" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="AG56" s="6" t="s">
+      <c r="AG62" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="AH56" s="6" t="s">
+      <c r="AH62" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="AI56" s="6" t="s">
+      <c r="AI62" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="AJ56" s="6" t="s">
+      <c r="AJ62" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="AK56" s="6" t="s">
+      <c r="AK62" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="AL56" s="6" t="s">
+      <c r="AL62" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="AM56" s="6" t="s">
+      <c r="AM62" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="AN56" s="6" t="s">
+      <c r="AN62" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AO56" s="6" t="s">
+      <c r="AO62" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AP56" s="6" t="s">
+      <c r="AP62" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AQ56" s="6" t="s">
+      <c r="AQ62" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="AR56" s="6" t="s">
+      <c r="AR62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="24" customHeight="1">
-      <c r="A58" s="9" t="s">
+    <row r="64" spans="1:44" ht="24" customHeight="1">
+      <c r="A64" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="24" customHeight="1">
-      <c r="A59" s="14" t="s">
+    <row r="65" spans="1:50" ht="24" customHeight="1">
+      <c r="A65" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="24" customHeight="1">
-      <c r="B60" s="10" t="s">
+    <row r="66" spans="1:50" ht="24" customHeight="1">
+      <c r="B66" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="24" customHeight="1">
-      <c r="B61" s="11"/>
-      <c r="AA61" s="6" t="s">
+    <row r="67" spans="1:50" ht="24" customHeight="1">
+      <c r="B67" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA67" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="AB61" s="6" t="s">
+      <c r="AB67" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="AC61" s="6" t="s">
+      <c r="AC67" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="AD61" s="6" t="s">
+      <c r="AD67" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="AE61" s="6" t="s">
+      <c r="AE67" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="AF61" s="6" t="s">
+      <c r="AF67" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="AG61" s="6" t="s">
+      <c r="AG67" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="AH61" s="6" t="s">
+      <c r="AH67" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="AI61" s="6" t="s">
+      <c r="AI67" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AJ61" s="6" t="s">
+      <c r="AJ67" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="AK61" s="6" t="s">
+      <c r="AK67" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="AL61" s="6" t="s">
+      <c r="AL67" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AM61" s="6" t="s">
+      <c r="AM67" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AN61" s="6" t="s">
+      <c r="AN67" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AO61" s="6" t="s">
+      <c r="AO67" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="AP61" s="6" t="s">
+      <c r="AP67" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="AQ61" s="6" t="s">
+      <c r="AQ67" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="AR61" s="6" t="s">
+      <c r="AR67" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="AS61" s="6" t="s">
+      <c r="AS67" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="AT61" s="6" t="s">
+      <c r="AT67" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="AU61" s="6" t="s">
+      <c r="AU67" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="AV61" s="6" t="s">
+      <c r="AV67" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="AW61" s="6" t="s">
+      <c r="AW67" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="AX61" s="6" t="s">
+      <c r="AX67" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:50" ht="24" customHeight="1">
-      <c r="A64" s="12" t="s">
+    <row r="70" spans="1:50" ht="24" customHeight="1">
+      <c r="A70" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B70" s="12" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="24" customHeight="1">
-      <c r="B65" s="13" t="s">
+    <row r="71" spans="1:50" ht="24" customHeight="1">
+      <c r="B71" s="13" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="24" customHeight="1">
-      <c r="A67" s="9" t="s">
+    <row r="73" spans="1:50" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B73" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="24" customHeight="1">
-      <c r="A68" s="14" t="s">
+    <row r="74" spans="1:50" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="24" customHeight="1">
-      <c r="B69" s="10" t="s">
+    <row r="75" spans="1:50" ht="24" customHeight="1">
+      <c r="B75" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-      <c r="AA70" s="6" t="s">
+    <row r="76" spans="1:50" ht="24" customHeight="1">
+      <c r="B76" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA76" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="AB70" s="6" t="s">
+      <c r="AB76" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="AC70" s="6" t="s">
+      <c r="AC76" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="AD70" s="6" t="s">
+      <c r="AD76" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="AE70" s="6" t="s">
+      <c r="AE76" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="AF70" s="6" t="s">
+      <c r="AF76" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="AG70" s="6" t="s">
+      <c r="AG76" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="AH70" s="6" t="s">
+      <c r="AH76" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
+    <row r="78" spans="1:50" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="24" customHeight="1">
-      <c r="A73" s="14" t="s">
+    <row r="79" spans="1:50" ht="24" customHeight="1">
+      <c r="A79" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B79" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="24" customHeight="1">
-      <c r="B74" s="10" t="s">
+    <row r="80" spans="1:50" ht="24" customHeight="1">
+      <c r="B80" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-      <c r="AA75" s="6" t="s">
+    <row r="81" spans="1:32" ht="24" customHeight="1">
+      <c r="B81" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA81" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="AB75" s="6" t="s">
+      <c r="AB81" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AC75" s="6" t="s">
+      <c r="AC81" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="AD75" s="6" t="s">
+      <c r="AD81" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="AE75" s="6" t="s">
+      <c r="AE81" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="AF75" s="6" t="s">
+      <c r="AF81" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="24" customHeight="1">
-      <c r="A78" s="12" t="s">
+    <row r="84" spans="1:32" ht="24" customHeight="1">
+      <c r="A84" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B84" s="12" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="24" customHeight="1">
-      <c r="B79" s="13" t="s">
+    <row r="85" spans="1:32" ht="24" customHeight="1">
+      <c r="B85" s="13" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
+    <row r="87" spans="1:32" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B87" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="24" customHeight="1">
-      <c r="A82" s="14" t="s">
+    <row r="88" spans="1:32" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="24" customHeight="1">
-      <c r="B83" s="10" t="s">
+    <row r="89" spans="1:32" ht="24" customHeight="1">
+      <c r="B89" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="24" customHeight="1">
-      <c r="B84" s="11"/>
-      <c r="AA84" s="6" t="s">
+    <row r="90" spans="1:32" ht="24" customHeight="1">
+      <c r="B90" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA90" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="AB84" s="6" t="s">
+      <c r="AB90" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="AC84" s="6" t="s">
+      <c r="AC90" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="AD84" s="6" t="s">
+      <c r="AD90" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="AE84" s="6" t="s">
+      <c r="AE90" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="24" customHeight="1">
-      <c r="A86" s="9" t="s">
+    <row r="92" spans="1:32" ht="24" customHeight="1">
+      <c r="A92" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B92" s="9" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="24" customHeight="1">
-      <c r="A87" s="14" t="s">
+    <row r="93" spans="1:32" ht="24" customHeight="1">
+      <c r="A93" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="24" customHeight="1">
-      <c r="B88" s="10" t="s">
+    <row r="94" spans="1:32" ht="24" customHeight="1">
+      <c r="B94" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
-      <c r="AA89" s="6" t="s">
+    <row r="95" spans="1:32" ht="24" customHeight="1">
+      <c r="B95" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA95" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AB89" s="6" t="s">
+      <c r="AB95" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="AC89" s="6" t="s">
+      <c r="AC95" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="24" customHeight="1">
-      <c r="A92" s="12" t="s">
+    <row r="98" spans="1:33" ht="24" customHeight="1">
+      <c r="A98" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B98" s="12" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="24" customHeight="1">
-      <c r="B93" s="13" t="s">
+    <row r="99" spans="1:33" ht="24" customHeight="1">
+      <c r="B99" s="13" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
+    <row r="101" spans="1:33" ht="24" customHeight="1">
+      <c r="A101" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B101" s="9" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
+    <row r="102" spans="1:33" ht="24" customHeight="1">
+      <c r="A102" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B102" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-      <c r="AA97" s="6" t="s">
+    <row r="103" spans="1:33" ht="24" customHeight="1">
+      <c r="B103" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA103" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="AB97" s="6" t="s">
+      <c r="AB103" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="AC97" s="6" t="s">
+      <c r="AC103" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="AD97" s="6" t="s">
+      <c r="AD103" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
+    <row r="106" spans="1:33" ht="24" customHeight="1">
+      <c r="A106" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B106" s="12" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
+    <row r="107" spans="1:33" ht="24" customHeight="1">
+      <c r="B107" s="13" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
+    <row r="109" spans="1:33" ht="24" customHeight="1">
+      <c r="A109" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B109" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
+    <row r="110" spans="1:33" ht="24" customHeight="1">
+      <c r="A110" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B110" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C110" s="10" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="24" customHeight="1">
-      <c r="B105" s="10" t="s">
+    <row r="111" spans="1:33" ht="24" customHeight="1">
+      <c r="B111" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="24" customHeight="1">
-      <c r="B106" s="11"/>
-      <c r="AA106" s="6" t="s">
+    <row r="112" spans="1:33" ht="24" customHeight="1">
+      <c r="B112" s="11"/>
+      <c r="AA112" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="AB106" s="6" t="s">
+      <c r="AB112" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="AC106" s="6" t="s">
+      <c r="AC112" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="AD106" s="6" t="s">
+      <c r="AD112" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="AE106" s="6" t="s">
+      <c r="AE112" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="AF106" s="6" t="s">
+      <c r="AF112" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="AG106" s="6" t="s">
+      <c r="AG112" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
+    <row r="114" spans="1:32" ht="24" customHeight="1">
+      <c r="A114" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B114" s="9" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="24" customHeight="1">
-      <c r="A109" s="14" t="s">
+    <row r="115" spans="1:32" ht="24" customHeight="1">
+      <c r="A115" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="24" customHeight="1">
-      <c r="B110" s="10" t="s">
+    <row r="116" spans="1:32" ht="24" customHeight="1">
+      <c r="B116" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="24" customHeight="1">
-      <c r="B111" s="11"/>
-      <c r="AA111" s="6" t="s">
+    <row r="117" spans="1:32" ht="24" customHeight="1">
+      <c r="B117" s="11"/>
+      <c r="AA117" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="AB111" s="6" t="s">
+      <c r="AB117" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AC111" s="6" t="s">
+      <c r="AC117" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="AD111" s="6" t="s">
+      <c r="AD117" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="AE111" s="6" t="s">
+      <c r="AE117" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="AF111" s="6" t="s">
+      <c r="AF117" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="24" customHeight="1">
-      <c r="A114" s="12" t="s">
+    <row r="120" spans="1:32" ht="24" customHeight="1">
+      <c r="A120" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B120" s="12" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="24" customHeight="1">
-      <c r="B115" s="13" t="s">
+    <row r="121" spans="1:32" ht="24" customHeight="1">
+      <c r="B121" s="13" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="24" customHeight="1">
-      <c r="A117" s="9" t="s">
+    <row r="123" spans="1:32" ht="24" customHeight="1">
+      <c r="A123" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B123" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="24" customHeight="1">
-      <c r="A118" s="14" t="s">
+    <row r="124" spans="1:32" ht="24" customHeight="1">
+      <c r="A124" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B124" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C124" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="24" customHeight="1">
-      <c r="B119" s="11"/>
-    </row>
-    <row r="121" spans="1:32" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
+    <row r="125" spans="1:32" ht="24" customHeight="1">
+      <c r="B125" s="11" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" ht="24" customHeight="1">
+      <c r="A127" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B127" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="122" spans="1:32" ht="24" customHeight="1">
-      <c r="A122" s="14" t="s">
+    <row r="128" spans="1:32" ht="24" customHeight="1">
+      <c r="A128" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B128" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C128" s="10" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="123" spans="1:32" ht="24" customHeight="1">
-      <c r="B123" s="11"/>
-      <c r="AA123" s="6" t="s">
+    <row r="129" spans="1:32" ht="24" customHeight="1">
+      <c r="B129" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="AB123" s="6" t="s">
+      <c r="AA129" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB129" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="AC123" s="6" t="s">
+      <c r="AC129" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="AD123" s="6" t="s">
+      <c r="AD129" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="125" spans="1:32" ht="24" customHeight="1">
-      <c r="A125" s="9" t="s">
+    <row r="131" spans="1:32" ht="24" customHeight="1">
+      <c r="A131" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B131" s="9" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="24" customHeight="1">
-      <c r="A126" s="14" t="s">
+    <row r="132" spans="1:32" ht="24" customHeight="1">
+      <c r="A132" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B132" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="127" spans="1:32" ht="24" customHeight="1">
-      <c r="B127" s="10" t="s">
+    <row r="133" spans="1:32" ht="24" customHeight="1">
+      <c r="B133" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="24" customHeight="1">
-      <c r="B128" s="11"/>
-      <c r="AA128" s="6" t="s">
+    <row r="134" spans="1:32" ht="24" customHeight="1">
+      <c r="B134" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="AB128" s="6" t="s">
+      <c r="AA134" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB134" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="AC128" s="6" t="s">
+      <c r="AC134" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="AD128" s="6" t="s">
+      <c r="AD134" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="AE128" s="6" t="s">
+      <c r="AE134" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="AF128" s="6" t="s">
+      <c r="AF134" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="24" customHeight="1">
-      <c r="A130" s="9" t="s">
+    <row r="136" spans="1:32" ht="24" customHeight="1">
+      <c r="A136" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B136" s="9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="24" customHeight="1">
-      <c r="A131" s="14" t="s">
+    <row r="137" spans="1:32" ht="24" customHeight="1">
+      <c r="A137" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C137" s="10" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="24" customHeight="1">
-      <c r="B132" s="11"/>
-    </row>
-    <row r="134" spans="1:29" ht="24" customHeight="1">
-      <c r="A134" s="9" t="s">
+    <row r="138" spans="1:32" ht="24" customHeight="1">
+      <c r="B138" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" ht="24" customHeight="1">
+      <c r="A140" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B140" s="9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="A135" s="14" t="s">
+    <row r="141" spans="1:32" ht="24" customHeight="1">
+      <c r="A141" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C141" s="10" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="24" customHeight="1">
-      <c r="B136" s="10" t="s">
+    <row r="142" spans="1:32" ht="24" customHeight="1">
+      <c r="B142" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="24" customHeight="1">
-      <c r="B137" s="11"/>
-      <c r="AA137" s="6" t="s">
+    <row r="143" spans="1:32" ht="24" customHeight="1">
+      <c r="B143" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="AB137" s="6" t="s">
+      <c r="AA143" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB143" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="AC137" s="6" t="s">
+      <c r="AC143" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="24" customHeight="1">
-      <c r="A140" s="12" t="s">
+    <row r="146" spans="1:37" ht="24" customHeight="1">
+      <c r="A146" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B146" s="12" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="24" customHeight="1">
-      <c r="B141" s="13" t="s">
+    <row r="147" spans="1:37" ht="24" customHeight="1">
+      <c r="B147" s="13" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="24" customHeight="1">
-      <c r="A143" s="9" t="s">
+    <row r="149" spans="1:37" ht="24" customHeight="1">
+      <c r="A149" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B149" s="9" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="24" customHeight="1">
-      <c r="A144" s="14" t="s">
+    <row r="150" spans="1:37" ht="24" customHeight="1">
+      <c r="A150" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B150" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C150" s="10" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="145" spans="1:50" ht="24" customHeight="1">
-      <c r="B145" s="10" t="s">
+    <row r="151" spans="1:37" ht="24" customHeight="1">
+      <c r="B151" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:50" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
-      <c r="AA146" s="6" t="s">
+    <row r="152" spans="1:37" ht="24" customHeight="1">
+      <c r="B152" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="AB146" s="6" t="s">
+      <c r="AA152" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AB152" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AC146" s="6" t="s">
+      <c r="AC152" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AD146" s="6" t="s">
+      <c r="AD152" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AE146" s="6" t="s">
+      <c r="AE152" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AF146" s="6" t="s">
+      <c r="AF152" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="AG146" s="6" t="s">
+      <c r="AG152" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="AH146" s="6" t="s">
+      <c r="AH152" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="AI146" s="6" t="s">
+      <c r="AI152" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="AJ146" s="6" t="s">
+      <c r="AJ152" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="AK146" s="6" t="s">
+      <c r="AK152" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:50" ht="24" customHeight="1">
-      <c r="A148" s="9" t="s">
+    <row r="153" spans="1:37" ht="24" customHeight="1">
+      <c r="B153" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="154" spans="1:37" ht="24" customHeight="1">
+      <c r="B154" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:37" ht="24" customHeight="1">
+      <c r="B155" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="156" spans="1:37" ht="24" customHeight="1">
+      <c r="B156" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157" spans="1:37" ht="24" customHeight="1">
+      <c r="B157" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="158" spans="1:37" ht="24" customHeight="1">
+      <c r="B158" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="160" spans="1:37" ht="24" customHeight="1">
+      <c r="A160" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B160" s="9" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="149" spans="1:50" ht="24" customHeight="1">
-      <c r="A149" s="14" t="s">
+    <row r="161" spans="1:50" ht="24" customHeight="1">
+      <c r="A161" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B161" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C161" s="10" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="150" spans="1:50" ht="24" customHeight="1">
-      <c r="B150" s="10" t="s">
+    <row r="162" spans="1:50" ht="24" customHeight="1">
+      <c r="B162" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:50" ht="24" customHeight="1">
-      <c r="B151" s="11"/>
-      <c r="AA151" s="6" t="s">
+    <row r="163" spans="1:50" ht="24" customHeight="1">
+      <c r="B163" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA163" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AB151" s="6" t="s">
+      <c r="AB163" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="AC151" s="6" t="s">
+      <c r="AC163" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="AD151" s="6" t="s">
+      <c r="AD163" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="AE151" s="6" t="s">
+      <c r="AE163" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="AF151" s="6" t="s">
+      <c r="AF163" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="AG151" s="6" t="s">
+      <c r="AG163" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="AH151" s="6" t="s">
+      <c r="AH163" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="AI151" s="6" t="s">
+      <c r="AI163" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="AJ151" s="6" t="s">
+      <c r="AJ163" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="AK151" s="6" t="s">
+      <c r="AK163" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="AL151" s="6" t="s">
+      <c r="AL163" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="AM151" s="6" t="s">
+      <c r="AM163" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="AN151" s="6" t="s">
+      <c r="AN163" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AO151" s="6" t="s">
+      <c r="AO163" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AP151" s="6" t="s">
+      <c r="AP163" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AQ151" s="6" t="s">
+      <c r="AQ163" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="AR151" s="6" t="s">
+      <c r="AR163" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="153" spans="1:50" ht="24" customHeight="1">
-      <c r="A153" s="9" t="s">
+    <row r="165" spans="1:50" ht="24" customHeight="1">
+      <c r="A165" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B165" s="9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="154" spans="1:50" ht="24" customHeight="1">
-      <c r="A154" s="14" t="s">
+    <row r="166" spans="1:50" ht="24" customHeight="1">
+      <c r="A166" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B166" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C166" s="10" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:50" ht="24" customHeight="1">
-      <c r="B155" s="10" t="s">
+    <row r="167" spans="1:50" ht="24" customHeight="1">
+      <c r="B167" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:50" ht="24" customHeight="1">
-      <c r="B156" s="11"/>
-      <c r="AA156" s="6" t="s">
+    <row r="168" spans="1:50" ht="24" customHeight="1">
+      <c r="B168" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA168" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="AB156" s="6" t="s">
+      <c r="AB168" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="AC156" s="6" t="s">
+      <c r="AC168" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="AD156" s="6" t="s">
+      <c r="AD168" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="AE156" s="6" t="s">
+      <c r="AE168" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="AF156" s="6" t="s">
+      <c r="AF168" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="AG156" s="6" t="s">
+      <c r="AG168" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="AH156" s="6" t="s">
+      <c r="AH168" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="AI156" s="6" t="s">
+      <c r="AI168" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AJ156" s="6" t="s">
+      <c r="AJ168" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="AK156" s="6" t="s">
+      <c r="AK168" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="AL156" s="6" t="s">
+      <c r="AL168" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AM156" s="6" t="s">
+      <c r="AM168" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AN156" s="6" t="s">
+      <c r="AN168" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AO156" s="6" t="s">
+      <c r="AO168" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="AP156" s="6" t="s">
+      <c r="AP168" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="AQ156" s="6" t="s">
+      <c r="AQ168" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="AR156" s="6" t="s">
+      <c r="AR168" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="AS156" s="6" t="s">
+      <c r="AS168" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="AT156" s="6" t="s">
+      <c r="AT168" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="AU156" s="6" t="s">
+      <c r="AU168" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="AV156" s="6" t="s">
+      <c r="AV168" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="AW156" s="6" t="s">
+      <c r="AW168" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="AX156" s="6" t="s">
+      <c r="AX168" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="159" spans="1:50" ht="24" customHeight="1">
-      <c r="A159" s="12" t="s">
+    <row r="171" spans="1:50" ht="24" customHeight="1">
+      <c r="A171" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B171" s="12" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="160" spans="1:50" ht="24" customHeight="1">
-      <c r="B160" s="13" t="s">
+    <row r="172" spans="1:50" ht="24" customHeight="1">
+      <c r="B172" s="13" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="162" spans="1:34" ht="24" customHeight="1">
-      <c r="A162" s="9" t="s">
+    <row r="174" spans="1:50" ht="24" customHeight="1">
+      <c r="A174" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B174" s="9" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="163" spans="1:34" ht="24" customHeight="1">
-      <c r="A163" s="14" t="s">
+    <row r="175" spans="1:50" ht="24" customHeight="1">
+      <c r="A175" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B175" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C175" s="10" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="164" spans="1:34" ht="24" customHeight="1">
-      <c r="B164" s="10" t="s">
+    <row r="176" spans="1:50" ht="24" customHeight="1">
+      <c r="B176" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:34" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
-      <c r="AA165" s="6" t="s">
+    <row r="177" spans="1:34" ht="24" customHeight="1">
+      <c r="B177" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA177" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="AB165" s="6" t="s">
+      <c r="AB177" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="AC165" s="6" t="s">
+      <c r="AC177" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="AD165" s="6" t="s">
+      <c r="AD177" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="AE165" s="6" t="s">
+      <c r="AE177" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="AF165" s="6" t="s">
+      <c r="AF177" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="AG165" s="6" t="s">
+      <c r="AG177" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="AH165" s="6" t="s">
+      <c r="AH177" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:34" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
+    <row r="179" spans="1:34" ht="24" customHeight="1">
+      <c r="A179" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B179" s="9" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:34" ht="24" customHeight="1">
-      <c r="A168" s="14" t="s">
+    <row r="180" spans="1:34" ht="24" customHeight="1">
+      <c r="A180" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B180" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C180" s="10" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="169" spans="1:34" ht="24" customHeight="1">
-      <c r="B169" s="10" t="s">
+    <row r="181" spans="1:34" ht="24" customHeight="1">
+      <c r="B181" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:34" ht="24" customHeight="1">
-      <c r="B170" s="11"/>
-      <c r="AA170" s="6" t="s">
+    <row r="182" spans="1:34" ht="24" customHeight="1">
+      <c r="B182" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA182" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="AB170" s="6" t="s">
+      <c r="AB182" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AC170" s="6" t="s">
+      <c r="AC182" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="AD170" s="6" t="s">
+      <c r="AD182" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="AE170" s="6" t="s">
+      <c r="AE182" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="AF170" s="6" t="s">
+      <c r="AF182" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:34" ht="24" customHeight="1">
-      <c r="A173" s="12" t="s">
+    <row r="185" spans="1:34" ht="24" customHeight="1">
+      <c r="A185" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B185" s="12" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="174" spans="1:34" ht="24" customHeight="1">
-      <c r="B174" s="13" t="s">
+    <row r="186" spans="1:34" ht="24" customHeight="1">
+      <c r="B186" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="176" spans="1:34" ht="24" customHeight="1">
-      <c r="A176" s="9" t="s">
+    <row r="188" spans="1:34" ht="24" customHeight="1">
+      <c r="A188" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B188" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="24" customHeight="1">
-      <c r="A177" s="14" t="s">
+    <row r="189" spans="1:34" ht="24" customHeight="1">
+      <c r="A189" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B189" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C189" s="10" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="178" spans="1:31" ht="24" customHeight="1">
-      <c r="B178" s="10" t="s">
+    <row r="190" spans="1:34" ht="24" customHeight="1">
+      <c r="B190" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:31" ht="24" customHeight="1">
-      <c r="B179" s="11"/>
-      <c r="AA179" s="6" t="s">
+    <row r="191" spans="1:34" ht="24" customHeight="1">
+      <c r="B191" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA191" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="AB179" s="6" t="s">
+      <c r="AB191" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="AC179" s="6" t="s">
+      <c r="AC191" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="AD179" s="6" t="s">
+      <c r="AD191" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="AE179" s="6" t="s">
+      <c r="AE191" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="181" spans="1:31" ht="24" customHeight="1">
-      <c r="A181" s="9" t="s">
+    <row r="193" spans="1:30" ht="24" customHeight="1">
+      <c r="A193" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B193" s="9" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="24" customHeight="1">
-      <c r="A182" s="14" t="s">
+    <row r="194" spans="1:30" ht="24" customHeight="1">
+      <c r="A194" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B194" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C194" s="10" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="24" customHeight="1">
-      <c r="B183" s="10" t="s">
+    <row r="195" spans="1:30" ht="24" customHeight="1">
+      <c r="B195" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:31" ht="24" customHeight="1">
-      <c r="B184" s="11"/>
-      <c r="AA184" s="6" t="s">
+    <row r="196" spans="1:30" ht="24" customHeight="1">
+      <c r="B196" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA196" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AB184" s="6" t="s">
+      <c r="AB196" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="AC184" s="6" t="s">
+      <c r="AC196" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="24" customHeight="1">
-      <c r="A187" s="12" t="s">
+    <row r="199" spans="1:30" ht="24" customHeight="1">
+      <c r="A199" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B199" s="12" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="24" customHeight="1">
-      <c r="B188" s="13" t="s">
+    <row r="200" spans="1:30" ht="24" customHeight="1">
+      <c r="B200" s="13" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="190" spans="1:31" ht="24" customHeight="1">
-      <c r="A190" s="9" t="s">
+    <row r="202" spans="1:30" ht="24" customHeight="1">
+      <c r="A202" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B202" s="9" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="191" spans="1:31" ht="24" customHeight="1">
-      <c r="A191" s="14" t="s">
+    <row r="203" spans="1:30" ht="24" customHeight="1">
+      <c r="A203" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B203" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C203" s="10" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="192" spans="1:31" ht="24" customHeight="1">
-      <c r="B192" s="11"/>
-      <c r="AA192" s="6" t="s">
+    <row r="204" spans="1:30" ht="24" customHeight="1">
+      <c r="B204" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA204" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="AB192" s="6" t="s">
+      <c r="AB204" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="AC192" s="6" t="s">
+      <c r="AC204" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="AD192" s="6" t="s">
+      <c r="AD204" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="195" spans="1:33" ht="24" customHeight="1">
-      <c r="A195" s="12" t="s">
+    <row r="207" spans="1:30" ht="24" customHeight="1">
+      <c r="A207" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="B207" s="12" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="196" spans="1:33" ht="24" customHeight="1">
-      <c r="B196" s="13" t="s">
+    <row r="208" spans="1:30" ht="24" customHeight="1">
+      <c r="B208" s="13" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="198" spans="1:33" ht="24" customHeight="1">
-      <c r="A198" s="9" t="s">
+    <row r="210" spans="1:33" ht="24" customHeight="1">
+      <c r="A210" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B210" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="199" spans="1:33" ht="24" customHeight="1">
-      <c r="A199" s="14" t="s">
+    <row r="211" spans="1:33" ht="24" customHeight="1">
+      <c r="A211" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B211" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C211" s="10" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="200" spans="1:33" ht="24" customHeight="1">
-      <c r="B200" s="10" t="s">
+    <row r="212" spans="1:33" ht="24" customHeight="1">
+      <c r="B212" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:33" ht="24" customHeight="1">
-      <c r="B201" s="11"/>
-      <c r="AA201" s="6" t="s">
+    <row r="213" spans="1:33" ht="24" customHeight="1">
+      <c r="B213" s="11"/>
+      <c r="AA213" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="AB201" s="6" t="s">
+      <c r="AB213" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="AC201" s="6" t="s">
+      <c r="AC213" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="AD201" s="6" t="s">
+      <c r="AD213" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="AE201" s="6" t="s">
+      <c r="AE213" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="AF201" s="6" t="s">
+      <c r="AF213" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="AG201" s="6" t="s">
+      <c r="AG213" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="203" spans="1:33" ht="24" customHeight="1">
-      <c r="A203" s="9" t="s">
+    <row r="215" spans="1:33" ht="24" customHeight="1">
+      <c r="A215" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B215" s="9" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="204" spans="1:33" ht="24" customHeight="1">
-      <c r="A204" s="14" t="s">
+    <row r="216" spans="1:33" ht="24" customHeight="1">
+      <c r="A216" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B216" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="C216" s="10" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="205" spans="1:33" ht="24" customHeight="1">
-      <c r="B205" s="10" t="s">
+    <row r="217" spans="1:33" ht="24" customHeight="1">
+      <c r="B217" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:33" ht="24" customHeight="1">
-      <c r="B206" s="11"/>
-      <c r="AA206" s="6" t="s">
+    <row r="218" spans="1:33" ht="24" customHeight="1">
+      <c r="B218" s="11"/>
+      <c r="AA218" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="AB206" s="6" t="s">
+      <c r="AB218" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AC206" s="6" t="s">
+      <c r="AC218" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="AD206" s="6" t="s">
+      <c r="AD218" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="AE206" s="6" t="s">
+      <c r="AE218" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="AF206" s="6" t="s">
+      <c r="AF218" s="6" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="29">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA16:AN16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B204 B129 B103" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA28:AD28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33 B218 B182 B134 B117 B81" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>AA33:AF33</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B138" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42 B196 B143 B95" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>AA42:AC42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51:B57 B152:B158" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>AA51:AK51</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
-      <formula1>AA56:AR56</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B163" xr:uid="{00000000-0002-0000-0500-000006000000}">
+      <formula1>AA62:AR62</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
-      <formula1>AA61:AX61</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67 B168" xr:uid="{00000000-0002-0000-0500-000007000000}">
+      <formula1>AA67:AX67</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AH70</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76 B177" xr:uid="{00000000-0002-0000-0500-000008000000}">
+      <formula1>AA76:AH76</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>AA75:AF75</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90 B191" xr:uid="{00000000-0002-0000-0500-00000A000000}">
+      <formula1>AA90:AE90</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
-      <formula1>AA84:AE84</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>AA89:AC89</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>AA97:AD97</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106">
-      <formula1>AA106:AG106</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B111">
-      <formula1>AA111:AF111</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B123">
-      <formula1>AA123:AD123</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128">
-      <formula1>AA128:AF128</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B132">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137">
-      <formula1>AA137:AC137</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
-      <formula1>AA146:AK146</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151">
-      <formula1>AA151:AR151</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B156">
-      <formula1>AA156:AX156</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>AA165:AH165</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B170">
-      <formula1>AA170:AF170</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B179">
-      <formula1>AA179:AE179</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
-      <formula1>AA184:AC184</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B192">
-      <formula1>AA192:AD192</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B201">
-      <formula1>AA201:AG201</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B206">
-      <formula1>AA206:AF206</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112 B213" xr:uid="{00000000-0002-0000-0500-00000D000000}">
+      <formula1>AA112:AG112</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8565,17 +8990,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AK91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -8611,7 +9038,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="18" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -8637,8 +9066,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="178.05" customHeight="1">
+      <c r="B11" s="18" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -8673,7 +9104,9 @@
       </c>
     </row>
     <row r="19" spans="1:37" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>642</v>
+      </c>
       <c r="AA19" s="6" t="s">
         <v>642</v>
       </c>
@@ -8712,7 +9145,9 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>648</v>
+      </c>
       <c r="AA24" s="6" t="s">
         <v>648</v>
       </c>
@@ -8767,7 +9202,7 @@
       </c>
     </row>
     <row r="28" spans="1:37" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="18"/>
     </row>
     <row r="30" spans="1:37" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
@@ -8789,7 +9224,9 @@
       </c>
     </row>
     <row r="32" spans="1:37" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="A35" s="12" t="s">
@@ -8824,7 +9261,9 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
@@ -8851,7 +9290,9 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>675</v>
+      </c>
       <c r="AA45" s="6" t="s">
         <v>675</v>
       </c>
@@ -8890,7 +9331,9 @@
       </c>
     </row>
     <row r="50" spans="1:36" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>682</v>
+      </c>
       <c r="AA50" s="6" t="s">
         <v>681</v>
       </c>
@@ -8935,7 +9378,9 @@
       </c>
     </row>
     <row r="55" spans="1:36" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>692</v>
+      </c>
       <c r="AA55" s="6" t="s">
         <v>690</v>
       </c>
@@ -8967,289 +9412,301 @@
         <v>65</v>
       </c>
     </row>
+    <row r="56" spans="1:36" ht="24" customHeight="1">
+      <c r="B56" s="11" t="s">
+        <v>693</v>
+      </c>
+    </row>
     <row r="57" spans="1:36" ht="24" customHeight="1">
-      <c r="A57" s="9" t="s">
+      <c r="B57" s="11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" ht="24" customHeight="1">
+      <c r="B58" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" ht="24" customHeight="1">
+      <c r="B59" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="24" customHeight="1">
-      <c r="A58" s="14" t="s">
+    <row r="62" spans="1:36" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="24" customHeight="1">
-      <c r="B59" s="10" t="s">
+    <row r="63" spans="1:36" ht="24" customHeight="1">
+      <c r="B63" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="24" customHeight="1">
-      <c r="B60" s="11"/>
-      <c r="AA60" s="6" t="s">
+    <row r="64" spans="1:36" ht="24" customHeight="1">
+      <c r="B64" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA64" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="AB60" s="6" t="s">
+      <c r="AB64" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="AC60" s="6" t="s">
+      <c r="AC64" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="AD60" s="6" t="s">
+      <c r="AD64" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="24" customHeight="1">
-      <c r="A63" s="12" t="s">
+    <row r="67" spans="1:29" ht="24" customHeight="1">
+      <c r="A67" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B67" s="12" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="24" customHeight="1">
-      <c r="B64" s="13" t="s">
+    <row r="68" spans="1:29" ht="24" customHeight="1">
+      <c r="B68" s="13" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
+    <row r="70" spans="1:29" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="A67" s="14" t="s">
+    <row r="71" spans="1:29" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
-    </row>
-    <row r="70" spans="1:30" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
+    <row r="72" spans="1:29" ht="24" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="A71" s="14" t="s">
+    <row r="75" spans="1:29" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1">
-      <c r="B72" s="10" t="s">
+    <row r="76" spans="1:29" ht="24" customHeight="1">
+      <c r="B76" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="B73" s="11"/>
-      <c r="AA73" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="AB73" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="AC73" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
-      <c r="A76" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
+    <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="AD77" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
+    <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B80" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="24" customHeight="1">
+      <c r="B81" s="11"/>
+      <c r="AA81" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB81" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC81" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="AD81" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" ht="24" customHeight="1">
+      <c r="A83" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="24" customHeight="1">
+      <c r="A84" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="24" customHeight="1">
-      <c r="B81" s="10" t="s">
+    <row r="85" spans="1:32" ht="24" customHeight="1">
+      <c r="B85" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="24" customHeight="1">
-      <c r="B82" s="11"/>
-      <c r="AA82" s="6" t="s">
+    <row r="86" spans="1:32" ht="24" customHeight="1">
+      <c r="B86" s="11"/>
+      <c r="AA86" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="AB82" s="6" t="s">
+      <c r="AB86" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AC82" s="6" t="s">
+      <c r="AC86" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="AD82" s="6" t="s">
+      <c r="AD86" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="AE82" s="6" t="s">
+      <c r="AE86" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="AF82" s="6" t="s">
+      <c r="AF86" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1">
-      <c r="A84" s="9" t="s">
+    <row r="88" spans="1:32" ht="24" customHeight="1">
+      <c r="A88" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B88" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="24" customHeight="1">
-      <c r="A85" s="14" t="s">
+    <row r="89" spans="1:32" ht="24" customHeight="1">
+      <c r="A89" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B89" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="24" customHeight="1">
-      <c r="B86" s="10" t="s">
+    <row r="90" spans="1:32" ht="24" customHeight="1">
+      <c r="B90" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-      <c r="AA87" s="6" t="s">
+    <row r="91" spans="1:32" ht="24" customHeight="1">
+      <c r="B91" s="11"/>
+      <c r="AA91" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="AB87" s="6" t="s">
+      <c r="AB91" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="AC87" s="6" t="s">
+      <c r="AC91" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="AD87" s="6" t="s">
+      <c r="AD91" s="6" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B91 B81 B64 B45" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>AA24:AK24</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>AA45:AD45</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50 B86" xr:uid="{00000000-0002-0000-0600-000005000000}">
       <formula1>AA50:AF50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55:B59" xr:uid="{00000000-0002-0000-0600-000006000000}">
       <formula1>AA55:AJ55</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
-      <formula1>AA60:AD60</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
-      <formula1>AA73:AC73</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
-      <formula1>AA77:AD77</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
-      <formula1>AA82:AF82</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
-      <formula1>AA87:AD87</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77" xr:uid="{00000000-0002-0000-0600-000008000000}">
+      <formula1>AA77:AC77</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -9285,7 +9742,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -9311,8 +9770,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="178.05" customHeight="1">
+      <c r="B11" s="18" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -9347,7 +9808,9 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
@@ -9374,7 +9837,9 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>747</v>
+      </c>
       <c r="AA24" s="6" t="s">
         <v>747</v>
       </c>
@@ -9424,7 +9889,9 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
@@ -9451,7 +9918,9 @@
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>764</v>
+      </c>
       <c r="AA37" s="6" t="s">
         <v>760</v>
       </c>
@@ -9482,10 +9951,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>AA24:AE24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>AA37:AI37</formula1>
     </dataValidation>
   </dataValidations>
@@ -9494,17 +9963,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AH89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
@@ -9540,7 +10011,9 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -9566,8 +10039,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:29" ht="178.05" customHeight="1">
+      <c r="B11" s="18" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -9594,7 +10069,9 @@
       </c>
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>781</v>
+      </c>
       <c r="AA16" s="6" t="s">
         <v>780</v>
       </c>
@@ -9625,7 +10102,9 @@
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
@@ -9652,7 +10131,9 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>789</v>
+      </c>
       <c r="AA25" s="6" t="s">
         <v>692</v>
       </c>
@@ -9691,7 +10172,12 @@
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>1037</v>
+      </c>
       <c r="AA30" s="6" t="s">
         <v>793</v>
       </c>
@@ -9742,7 +10228,9 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>802</v>
+      </c>
       <c r="AA35" s="6" t="s">
         <v>802</v>
       </c>
@@ -9795,7 +10283,9 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>817</v>
+      </c>
       <c r="AA43" s="6" t="s">
         <v>815</v>
       </c>
@@ -9832,7 +10322,9 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
@@ -10077,39 +10569,27 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 B89 B68" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>AA16:AC16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>AA30:AH30</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>AA35:AF35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>AA43:AE43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55 B76" xr:uid="{00000000-0002-0000-0800-000005000000}">
       <formula1>AA55:AB55</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B84" xr:uid="{00000000-0002-0000-0800-000006000000}">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AC68</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>AA76:AB76</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>AA89:AC89</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
